--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/主营业务成本.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/主营业务成本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>703.25087</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2894.97796</v>
-      </c>
-      <c r="D2" t="n">
-        <v>152.45317</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.32009</v>
-      </c>
-      <c r="F2" t="n">
-        <v>52.27922</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2321.30372</v>
-      </c>
-      <c r="H2" t="n">
-        <v>554.65053</v>
-      </c>
-      <c r="I2" t="n">
-        <v>548.48421</v>
-      </c>
-      <c r="J2" t="n">
-        <v>172.22859</v>
-      </c>
-      <c r="K2" t="n">
-        <v>33473.62</v>
-      </c>
-      <c r="L2" t="n">
-        <v>186.46594</v>
-      </c>
-      <c r="M2" t="n">
-        <v>18.18418</v>
-      </c>
-      <c r="N2" t="n">
-        <v>29.57873</v>
-      </c>
-      <c r="O2" t="n">
-        <v>888.402</v>
-      </c>
-      <c r="P2" t="n">
-        <v>912.7734799999999</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>123.26377</v>
-      </c>
-      <c r="R2" t="n">
-        <v>115.8815</v>
-      </c>
-      <c r="S2" t="n">
-        <v>79.17149000000001</v>
-      </c>
-      <c r="T2" t="n">
-        <v>65.69638</v>
-      </c>
-      <c r="U2" t="n">
-        <v>205.93763</v>
-      </c>
-      <c r="V2" t="n">
-        <v>654.64166</v>
-      </c>
-      <c r="W2" t="n">
-        <v>180.81658</v>
-      </c>
-      <c r="X2" t="n">
-        <v>724.33309</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>5289.94715</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2323.32764</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>720.45965</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>38.6001</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3810.37637</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1335.39089</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1388.24031</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>208.23353</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>352.35292</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>249.28749</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>825.19879</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>79.17037999999999</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>315.27217</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1110.06765</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>521.23051</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3104.076</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>42.84758</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>670.81376</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3425.31775</v>
-      </c>
-      <c r="D3" t="n">
-        <v>140.19454</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.15647</v>
-      </c>
-      <c r="F3" t="n">
-        <v>53.03489</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2504.29586</v>
-      </c>
-      <c r="H3" t="n">
-        <v>367.22837</v>
-      </c>
-      <c r="I3" t="n">
-        <v>606.54239</v>
-      </c>
-      <c r="J3" t="n">
-        <v>191.73478</v>
-      </c>
-      <c r="K3" t="n">
-        <v>35522.47</v>
-      </c>
-      <c r="L3" t="n">
-        <v>205.26944</v>
-      </c>
-      <c r="M3" t="n">
-        <v>18.82334</v>
-      </c>
-      <c r="N3" t="n">
-        <v>30.32654</v>
-      </c>
-      <c r="O3" t="n">
-        <v>961.45474</v>
-      </c>
-      <c r="P3" t="n">
-        <v>967.7743400000001</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>126.12554</v>
-      </c>
-      <c r="R3" t="n">
-        <v>123.63087</v>
-      </c>
-      <c r="S3" t="n">
-        <v>82.55101999999999</v>
-      </c>
-      <c r="T3" t="n">
-        <v>57.22202</v>
-      </c>
-      <c r="U3" t="n">
-        <v>223.91267</v>
-      </c>
-      <c r="V3" t="n">
-        <v>726.60983</v>
-      </c>
-      <c r="W3" t="n">
-        <v>190.31508</v>
-      </c>
-      <c r="X3" t="n">
-        <v>872.83096</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>6061.68601</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2499.22525</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>717.1561799999999</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>59.06279</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3808.63719</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1280.25663</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1261.69276</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>216.20699</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>352.72862</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>254.65861</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>780.55259</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>88.28407</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>319.26065</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>998.54429</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>522.79963</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3524.41053</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>51.83463</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>778.94398</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4221.43448</v>
-      </c>
-      <c r="D4" t="n">
-        <v>147.26281</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.15003</v>
-      </c>
-      <c r="F4" t="n">
-        <v>65.51918999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2606.65697</v>
-      </c>
-      <c r="H4" t="n">
-        <v>341.9995</v>
-      </c>
-      <c r="I4" t="n">
-        <v>667.99901</v>
-      </c>
-      <c r="J4" t="n">
-        <v>188.64491</v>
-      </c>
-      <c r="K4" t="n">
-        <v>38048</v>
-      </c>
-      <c r="L4" t="n">
-        <v>182.62894</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19.56889</v>
-      </c>
-      <c r="N4" t="n">
-        <v>28.4745</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1159.11977</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1016.35175</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>135.32387</v>
-      </c>
-      <c r="R4" t="n">
-        <v>106.72416</v>
-      </c>
-      <c r="S4" t="n">
-        <v>85.98891999999999</v>
-      </c>
-      <c r="T4" t="n">
-        <v>52.59525</v>
-      </c>
-      <c r="U4" t="n">
-        <v>227.03653</v>
-      </c>
-      <c r="V4" t="n">
-        <v>787.9485</v>
-      </c>
-      <c r="W4" t="n">
-        <v>240.09074</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1108.66152</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>6996.51501</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2329.99014</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>716.7035100000001</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>37.26525</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3820.80289</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1313.51418</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1198.949</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>233.20072</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>374.08206</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>251.39323</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>820.549</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>98.67961</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>327.76193</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>942.39574</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>519.15854</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3636.34894</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>62.22173</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
